--- a/PhoenixCI/Excel_Template/43020.xlsx
+++ b/PhoenixCI/Excel_Template/43020.xlsx
@@ -5,25 +5,27 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Bdc\結算部\風管組\個人資料區\CL.郭劻祥\1.測試\107年測試\107.1盤後子系統樣板升級\Excel_Template\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CIN\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="18900" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="48" windowWidth="18900" windowHeight="7932"/>
   </bookViews>
   <sheets>
     <sheet name="rpt_option" sheetId="6" r:id="rId1"/>
+    <sheet name="opt_3index" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">rpt_option!$B$1:$N$208</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">opt_3index!$A:$A</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">rpt_option!$142:$142</definedName>
   </definedNames>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="75">
   <si>
     <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1245,6 +1247,515 @@
 標的證券代號</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>結算保證金A值</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始保證金A值</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>商品別</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>現行收取結算保證金</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>實際風險價格係數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>適用風險價格係數</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本日結算保證金</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變動幅度</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EWMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>實際風險價格係數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EWMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>適用風險價格係數</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EWMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本日結算保證金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EWMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變動幅度</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MaxVol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>實際風險價格係數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MaxVol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>適用風險價格係數</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MaxVol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本日結算保證金</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變動幅度</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>現行</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>調整後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SMA</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>調整後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>EWMA</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>調整後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MaxVol</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>調整後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變動比率</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>調整後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>EWMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變動比率</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>調整後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MaxVol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變動比率</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>調整後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>原保占比</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>調整後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>EWMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>原保占比</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>調整後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MaxVol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>原保占比</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>契約規格</t>
+  </si>
+  <si>
+    <t>標的證券收盤價</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1252,14 +1763,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="182" formatCode="#,##0_ "/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="#,##0_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="181" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1403,8 +1914,28 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1423,8 +1954,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1508,6 +2045,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1522,7 +2070,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1549,13 +2097,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1588,13 +2136,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1624,10 +2172,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1639,13 +2187,13 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1660,25 +2208,25 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1711,10 +2259,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1733,13 +2281,13 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1748,7 +2296,67 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="23" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="23" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1760,32 +2368,50 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2278,41 +2904,41 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:T210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B142" sqref="A142:IV142"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="0.125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="7" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="5.875" style="7" customWidth="1"/>
-    <col min="16" max="16" width="8.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="5.88671875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="8.77734375" style="1" customWidth="1"/>
     <col min="17" max="18" width="9" style="1"/>
-    <col min="19" max="19" width="9.625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12" customHeight="1"/>
-    <row r="2" spans="1:16" ht="9" customHeight="1"/>
+    <row r="2" spans="1:16" ht="9.15" customHeight="1"/>
     <row r="3" spans="1:16" ht="7.5" customHeight="1"/>
     <row r="4" spans="1:16" ht="10.5" customHeight="1"/>
     <row r="5" spans="1:16">
-      <c r="L5" s="88" t="s">
+      <c r="L5" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="89"/>
+      <c r="M5" s="108"/>
       <c r="N5" s="60"/>
     </row>
     <row r="7" spans="1:16" s="17" customFormat="1" ht="22.5" customHeight="1">
@@ -2335,7 +2961,7 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:16" s="18" customFormat="1" ht="73.5" customHeight="1">
+    <row r="8" spans="1:16" s="18" customFormat="1" ht="73.650000000000006" customHeight="1">
       <c r="B8" s="61" t="s">
         <v>24</v>
       </c>
@@ -2354,14 +2980,14 @@
       <c r="G8" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="92" t="s">
+      <c r="H8" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="93"/>
-      <c r="J8" s="94" t="s">
+      <c r="I8" s="110"/>
+      <c r="J8" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="95"/>
+      <c r="K8" s="112"/>
       <c r="L8" s="82" t="s">
         <v>41</v>
       </c>
@@ -2379,10 +3005,10 @@
       <c r="G9" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
       <c r="L9" s="62"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
@@ -2398,10 +3024,10 @@
       <c r="G10" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
       <c r="L10" s="62"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -2417,10 +3043,10 @@
       <c r="G11" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
       <c r="L11" s="62"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
@@ -2436,10 +3062,10 @@
       <c r="G12" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="84"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="85"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="105"/>
       <c r="L12" s="62"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -2455,10 +3081,10 @@
       <c r="G13" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
       <c r="L13" s="62"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -2474,10 +3100,10 @@
       <c r="G14" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
       <c r="L14" s="62"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -2493,10 +3119,10 @@
       <c r="G15" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
       <c r="L15" s="62"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -2512,10 +3138,10 @@
       <c r="G16" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="84"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="85"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="105"/>
       <c r="L16" s="62"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -2531,10 +3157,10 @@
       <c r="G17" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="84"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="85"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="105"/>
       <c r="L17" s="62"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -2550,10 +3176,10 @@
       <c r="G18" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="84"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="85"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="105"/>
       <c r="L18" s="62"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
@@ -2569,10 +3195,10 @@
       <c r="G19" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
       <c r="L19" s="62"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
@@ -2588,10 +3214,10 @@
       <c r="G20" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
       <c r="L20" s="62"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -2607,10 +3233,10 @@
       <c r="G21" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
       <c r="L21" s="62"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
@@ -2626,10 +3252,10 @@
       <c r="G22" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="84"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="85"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="105"/>
       <c r="L22" s="62"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -2645,10 +3271,10 @@
       <c r="G23" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
       <c r="L23" s="62"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
@@ -2664,10 +3290,10 @@
       <c r="G24" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
       <c r="L24" s="62"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
@@ -2683,10 +3309,10 @@
       <c r="G25" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
       <c r="L25" s="62"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
@@ -2702,10 +3328,10 @@
       <c r="G26" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="84"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="85"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="105"/>
       <c r="L26" s="62"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -2721,10 +3347,10 @@
       <c r="G27" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="84"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="85"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="105"/>
       <c r="L27" s="62"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
@@ -2740,10 +3366,10 @@
       <c r="G28" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="84"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="85"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="105"/>
       <c r="L28" s="62"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
@@ -2759,10 +3385,10 @@
       <c r="G29" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
       <c r="L29" s="62"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
@@ -2778,10 +3404,10 @@
       <c r="G30" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="106"/>
       <c r="L30" s="62"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
@@ -2797,10 +3423,10 @@
       <c r="G31" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="106"/>
       <c r="L31" s="62"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
@@ -2816,10 +3442,10 @@
       <c r="G32" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="84"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="85"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="105"/>
       <c r="L32" s="62"/>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
@@ -2835,10 +3461,10 @@
       <c r="G33" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
       <c r="L33" s="62"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
@@ -2854,10 +3480,10 @@
       <c r="G34" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="106"/>
       <c r="L34" s="62"/>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
@@ -2873,10 +3499,10 @@
       <c r="G35" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
       <c r="L35" s="62"/>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
@@ -2892,10 +3518,10 @@
       <c r="G36" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H36" s="84"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="85"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="105"/>
       <c r="L36" s="62"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
@@ -2911,10 +3537,10 @@
       <c r="G37" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H37" s="84"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="85"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="105"/>
       <c r="L37" s="62"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
@@ -2930,10 +3556,10 @@
       <c r="G38" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="84"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="85"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="105"/>
       <c r="L38" s="62"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
@@ -2949,10 +3575,10 @@
       <c r="G39" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="86"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="106"/>
+      <c r="J39" s="106"/>
+      <c r="K39" s="106"/>
       <c r="L39" s="62"/>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
@@ -2968,10 +3594,10 @@
       <c r="G40" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="106"/>
+      <c r="K40" s="106"/>
       <c r="L40" s="62"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
@@ -2987,10 +3613,10 @@
       <c r="G41" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H41" s="86"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="86"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="106"/>
+      <c r="K41" s="106"/>
       <c r="L41" s="62"/>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
@@ -3006,10 +3632,10 @@
       <c r="G42" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="84"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="85"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="105"/>
       <c r="L42" s="62"/>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
@@ -3025,10 +3651,10 @@
       <c r="G43" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="106"/>
+      <c r="K43" s="106"/>
       <c r="L43" s="62"/>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
@@ -3044,10 +3670,10 @@
       <c r="G44" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H44" s="86"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="106"/>
+      <c r="K44" s="106"/>
       <c r="L44" s="62"/>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
@@ -3063,10 +3689,10 @@
       <c r="G45" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="106"/>
+      <c r="K45" s="106"/>
       <c r="L45" s="62"/>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
@@ -3082,10 +3708,10 @@
       <c r="G46" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H46" s="84"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="85"/>
+      <c r="H46" s="104"/>
+      <c r="I46" s="105"/>
+      <c r="J46" s="104"/>
+      <c r="K46" s="105"/>
       <c r="L46" s="62"/>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
@@ -3101,10 +3727,10 @@
       <c r="G47" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H47" s="84"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="84"/>
-      <c r="K47" s="85"/>
+      <c r="H47" s="104"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="104"/>
+      <c r="K47" s="105"/>
       <c r="L47" s="62"/>
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
@@ -3120,10 +3746,10 @@
       <c r="G48" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H48" s="84"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="84"/>
-      <c r="K48" s="85"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="105"/>
+      <c r="J48" s="104"/>
+      <c r="K48" s="105"/>
       <c r="L48" s="62"/>
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
@@ -3139,10 +3765,10 @@
       <c r="G49" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H49" s="86"/>
-      <c r="I49" s="86"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="86"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="106"/>
+      <c r="J49" s="106"/>
+      <c r="K49" s="106"/>
       <c r="L49" s="62"/>
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
@@ -3158,10 +3784,10 @@
       <c r="G50" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H50" s="86"/>
-      <c r="I50" s="86"/>
-      <c r="J50" s="86"/>
-      <c r="K50" s="86"/>
+      <c r="H50" s="106"/>
+      <c r="I50" s="106"/>
+      <c r="J50" s="106"/>
+      <c r="K50" s="106"/>
       <c r="L50" s="62"/>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -3177,10 +3803,10 @@
       <c r="G51" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H51" s="86"/>
-      <c r="I51" s="86"/>
-      <c r="J51" s="86"/>
-      <c r="K51" s="86"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="106"/>
+      <c r="K51" s="106"/>
       <c r="L51" s="62"/>
       <c r="M51" s="11"/>
       <c r="N51" s="11"/>
@@ -3196,10 +3822,10 @@
       <c r="G52" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H52" s="84"/>
-      <c r="I52" s="85"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="85"/>
+      <c r="H52" s="104"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="104"/>
+      <c r="K52" s="105"/>
       <c r="L52" s="62"/>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
@@ -3215,10 +3841,10 @@
       <c r="G53" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H53" s="86"/>
-      <c r="I53" s="86"/>
-      <c r="J53" s="86"/>
-      <c r="K53" s="86"/>
+      <c r="H53" s="106"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="106"/>
+      <c r="K53" s="106"/>
       <c r="L53" s="62"/>
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
@@ -3234,10 +3860,10 @@
       <c r="G54" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="86"/>
-      <c r="I54" s="86"/>
-      <c r="J54" s="86"/>
-      <c r="K54" s="86"/>
+      <c r="H54" s="106"/>
+      <c r="I54" s="106"/>
+      <c r="J54" s="106"/>
+      <c r="K54" s="106"/>
       <c r="L54" s="62"/>
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
@@ -3253,10 +3879,10 @@
       <c r="G55" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="86"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="86"/>
-      <c r="K55" s="86"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="106"/>
+      <c r="J55" s="106"/>
+      <c r="K55" s="106"/>
       <c r="L55" s="62"/>
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
@@ -3272,10 +3898,10 @@
       <c r="G56" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H56" s="84"/>
-      <c r="I56" s="85"/>
-      <c r="J56" s="84"/>
-      <c r="K56" s="85"/>
+      <c r="H56" s="104"/>
+      <c r="I56" s="105"/>
+      <c r="J56" s="104"/>
+      <c r="K56" s="105"/>
       <c r="L56" s="62"/>
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
@@ -3291,10 +3917,10 @@
       <c r="G57" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H57" s="84"/>
-      <c r="I57" s="85"/>
-      <c r="J57" s="84"/>
-      <c r="K57" s="85"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="105"/>
+      <c r="J57" s="104"/>
+      <c r="K57" s="105"/>
       <c r="L57" s="62"/>
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
@@ -3310,10 +3936,10 @@
       <c r="G58" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H58" s="84"/>
-      <c r="I58" s="85"/>
-      <c r="J58" s="84"/>
-      <c r="K58" s="85"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="105"/>
+      <c r="J58" s="104"/>
+      <c r="K58" s="105"/>
       <c r="L58" s="62"/>
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
@@ -3329,10 +3955,10 @@
       <c r="G59" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H59" s="86"/>
-      <c r="I59" s="86"/>
-      <c r="J59" s="86"/>
-      <c r="K59" s="86"/>
+      <c r="H59" s="106"/>
+      <c r="I59" s="106"/>
+      <c r="J59" s="106"/>
+      <c r="K59" s="106"/>
       <c r="L59" s="62"/>
       <c r="M59" s="11"/>
       <c r="N59" s="11"/>
@@ -3348,10 +3974,10 @@
       <c r="G60" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H60" s="86"/>
-      <c r="I60" s="86"/>
-      <c r="J60" s="86"/>
-      <c r="K60" s="86"/>
+      <c r="H60" s="106"/>
+      <c r="I60" s="106"/>
+      <c r="J60" s="106"/>
+      <c r="K60" s="106"/>
       <c r="L60" s="62"/>
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
@@ -3367,10 +3993,10 @@
       <c r="G61" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H61" s="86"/>
-      <c r="I61" s="86"/>
-      <c r="J61" s="86"/>
-      <c r="K61" s="86"/>
+      <c r="H61" s="106"/>
+      <c r="I61" s="106"/>
+      <c r="J61" s="106"/>
+      <c r="K61" s="106"/>
       <c r="L61" s="62"/>
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
@@ -3386,10 +4012,10 @@
       <c r="G62" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H62" s="84"/>
-      <c r="I62" s="85"/>
-      <c r="J62" s="84"/>
-      <c r="K62" s="85"/>
+      <c r="H62" s="104"/>
+      <c r="I62" s="105"/>
+      <c r="J62" s="104"/>
+      <c r="K62" s="105"/>
       <c r="L62" s="62"/>
       <c r="M62" s="11"/>
       <c r="N62" s="11"/>
@@ -3405,10 +4031,10 @@
       <c r="G63" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H63" s="86"/>
-      <c r="I63" s="86"/>
-      <c r="J63" s="86"/>
-      <c r="K63" s="86"/>
+      <c r="H63" s="106"/>
+      <c r="I63" s="106"/>
+      <c r="J63" s="106"/>
+      <c r="K63" s="106"/>
       <c r="L63" s="62"/>
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
@@ -3424,10 +4050,10 @@
       <c r="G64" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H64" s="86"/>
-      <c r="I64" s="86"/>
-      <c r="J64" s="86"/>
-      <c r="K64" s="86"/>
+      <c r="H64" s="106"/>
+      <c r="I64" s="106"/>
+      <c r="J64" s="106"/>
+      <c r="K64" s="106"/>
       <c r="L64" s="62"/>
       <c r="M64" s="11"/>
       <c r="N64" s="11"/>
@@ -3443,10 +4069,10 @@
       <c r="G65" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H65" s="86"/>
-      <c r="I65" s="86"/>
-      <c r="J65" s="86"/>
-      <c r="K65" s="86"/>
+      <c r="H65" s="106"/>
+      <c r="I65" s="106"/>
+      <c r="J65" s="106"/>
+      <c r="K65" s="106"/>
       <c r="L65" s="62"/>
       <c r="M65" s="11"/>
       <c r="N65" s="11"/>
@@ -3462,10 +4088,10 @@
       <c r="G66" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H66" s="84"/>
-      <c r="I66" s="85"/>
-      <c r="J66" s="84"/>
-      <c r="K66" s="85"/>
+      <c r="H66" s="104"/>
+      <c r="I66" s="105"/>
+      <c r="J66" s="104"/>
+      <c r="K66" s="105"/>
       <c r="L66" s="62"/>
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
@@ -3481,10 +4107,10 @@
       <c r="G67" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H67" s="84"/>
-      <c r="I67" s="85"/>
-      <c r="J67" s="84"/>
-      <c r="K67" s="85"/>
+      <c r="H67" s="104"/>
+      <c r="I67" s="105"/>
+      <c r="J67" s="104"/>
+      <c r="K67" s="105"/>
       <c r="L67" s="62"/>
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
@@ -3500,17 +4126,17 @@
       <c r="G68" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H68" s="84"/>
-      <c r="I68" s="85"/>
-      <c r="J68" s="84"/>
-      <c r="K68" s="85"/>
+      <c r="H68" s="104"/>
+      <c r="I68" s="105"/>
+      <c r="J68" s="104"/>
+      <c r="K68" s="105"/>
       <c r="L68" s="62"/>
       <c r="M68" s="12"/>
       <c r="N68" s="12"/>
       <c r="O68" s="11"/>
       <c r="P68" s="9"/>
     </row>
-    <row r="69" spans="1:18" ht="19.899999999999999" customHeight="1">
+    <row r="69" spans="1:18" ht="19.95" customHeight="1">
       <c r="B69" s="59" t="s">
         <v>43</v>
       </c>
@@ -3526,7 +4152,7 @@
       <c r="L69" s="21"/>
       <c r="M69" s="21"/>
     </row>
-    <row r="70" spans="1:18" ht="19.899999999999999" customHeight="1">
+    <row r="70" spans="1:18" ht="19.95" customHeight="1">
       <c r="B70" s="58" t="s">
         <v>42</v>
       </c>
@@ -3542,7 +4168,7 @@
       <c r="L70" s="21"/>
       <c r="M70" s="21"/>
     </row>
-    <row r="71" spans="1:18" s="21" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="71" spans="1:18" s="21" customFormat="1" ht="19.95" customHeight="1">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -3558,7 +4184,7 @@
       <c r="N71" s="8"/>
       <c r="O71" s="8"/>
     </row>
-    <row r="72" spans="1:18" s="21" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="72" spans="1:18" s="21" customFormat="1" ht="19.95" customHeight="1">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3574,7 +4200,7 @@
       <c r="N72" s="8"/>
       <c r="O72" s="8"/>
     </row>
-    <row r="73" spans="1:18" s="21" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="73" spans="1:18" s="21" customFormat="1" ht="19.95" customHeight="1">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3585,15 +4211,15 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
-      <c r="L73" s="88" t="str">
+      <c r="L73" s="107" t="str">
         <f>L5</f>
         <v>資料日期：2014年03月20日</v>
       </c>
-      <c r="M73" s="89"/>
+      <c r="M73" s="108"/>
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
     </row>
-    <row r="74" spans="1:18" ht="19.899999999999999" customHeight="1">
+    <row r="74" spans="1:18" ht="19.95" customHeight="1">
       <c r="A74" s="24" t="s">
         <v>5</v>
       </c>
@@ -3602,7 +4228,7 @@
       </c>
       <c r="M74" s="25"/>
     </row>
-    <row r="75" spans="1:18" ht="19.899999999999999" customHeight="1">
+    <row r="75" spans="1:18" ht="19.95" customHeight="1">
       <c r="B75" s="26" t="s">
         <v>30</v>
       </c>
@@ -3616,7 +4242,7 @@
       <c r="J75" s="27"/>
       <c r="K75" s="28"/>
     </row>
-    <row r="76" spans="1:18" ht="19.899999999999999" customHeight="1">
+    <row r="76" spans="1:18" ht="19.95" customHeight="1">
       <c r="B76" s="26" t="s">
         <v>31</v>
       </c>
@@ -5445,7 +6071,7 @@
       <c r="Q137" s="48"/>
       <c r="R137" s="34"/>
     </row>
-    <row r="138" spans="1:20" s="36" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="138" spans="1:20" s="36" customFormat="1" ht="19.95" customHeight="1">
       <c r="B138" s="38"/>
       <c r="C138" s="38"/>
       <c r="D138" s="38"/>
@@ -5464,7 +6090,7 @@
       <c r="Q138" s="34"/>
       <c r="R138" s="34"/>
     </row>
-    <row r="139" spans="1:20" s="36" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="139" spans="1:20" s="36" customFormat="1" ht="19.95" customHeight="1">
       <c r="B139" s="38"/>
       <c r="C139" s="38"/>
       <c r="D139" s="38"/>
@@ -5475,15 +6101,15 @@
       <c r="I139" s="40"/>
       <c r="J139" s="27"/>
       <c r="K139" s="41"/>
-      <c r="L139" s="88"/>
-      <c r="M139" s="89"/>
+      <c r="L139" s="107"/>
+      <c r="M139" s="108"/>
       <c r="N139" s="33"/>
       <c r="O139" s="37"/>
       <c r="P139" s="34"/>
       <c r="Q139" s="34"/>
       <c r="R139" s="34"/>
     </row>
-    <row r="140" spans="1:20" ht="19.899999999999999" customHeight="1">
+    <row r="140" spans="1:20" ht="19.95" customHeight="1">
       <c r="A140" s="24" t="s">
         <v>11</v>
       </c>
@@ -5499,19 +6125,19 @@
     </row>
     <row r="141" spans="1:20" ht="40.5" customHeight="1">
       <c r="A141" s="43"/>
-      <c r="B141" s="90" t="s">
+      <c r="B141" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="C141" s="90"/>
-      <c r="D141" s="90"/>
-      <c r="E141" s="90"/>
-      <c r="F141" s="90"/>
-      <c r="G141" s="90"/>
-      <c r="H141" s="90"/>
-      <c r="I141" s="90"/>
-      <c r="J141" s="90"/>
-      <c r="K141" s="90"/>
-      <c r="L141" s="90"/>
+      <c r="C141" s="114"/>
+      <c r="D141" s="114"/>
+      <c r="E141" s="114"/>
+      <c r="F141" s="114"/>
+      <c r="G141" s="114"/>
+      <c r="H141" s="114"/>
+      <c r="I141" s="114"/>
+      <c r="J141" s="114"/>
+      <c r="K141" s="114"/>
+      <c r="L141" s="114"/>
       <c r="M141" s="26"/>
       <c r="N141" s="7" t="s">
         <v>0</v>
@@ -5536,14 +6162,14 @@
       <c r="G142" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="H142" s="91" t="s">
+      <c r="H142" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="I142" s="91"/>
-      <c r="J142" s="91" t="s">
+      <c r="I142" s="115"/>
+      <c r="J142" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="K142" s="91"/>
+      <c r="K142" s="115"/>
       <c r="L142" s="44" t="s">
         <v>16</v>
       </c>
@@ -5596,16 +6222,16 @@
         <f>G9</f>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H143" s="83">
+      <c r="H143" s="113">
         <f>M78</f>
         <v>0</v>
       </c>
-      <c r="I143" s="83"/>
-      <c r="J143" s="83">
+      <c r="I143" s="113"/>
+      <c r="J143" s="113">
         <f>H9</f>
         <v>0</v>
       </c>
-      <c r="K143" s="83"/>
+      <c r="K143" s="113"/>
       <c r="L143" s="52"/>
       <c r="M143" s="80"/>
       <c r="N143" s="72"/>
@@ -5627,16 +6253,16 @@
         <f>G10</f>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H144" s="83">
+      <c r="H144" s="113">
         <f>M79</f>
         <v>0</v>
       </c>
-      <c r="I144" s="83"/>
-      <c r="J144" s="83">
+      <c r="I144" s="113"/>
+      <c r="J144" s="113">
         <f>H10</f>
         <v>0</v>
       </c>
-      <c r="K144" s="83"/>
+      <c r="K144" s="113"/>
       <c r="L144" s="53"/>
       <c r="M144" s="81"/>
       <c r="N144" s="72"/>
@@ -5673,16 +6299,16 @@
         <f t="shared" ref="G145:G202" si="2">G11</f>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H145" s="83">
+      <c r="H145" s="113">
         <f t="shared" ref="H145:H202" si="3">M80</f>
         <v>0</v>
       </c>
-      <c r="I145" s="83"/>
-      <c r="J145" s="83">
+      <c r="I145" s="113"/>
+      <c r="J145" s="113">
         <f t="shared" ref="J145:J202" si="4">H11</f>
         <v>0</v>
       </c>
-      <c r="K145" s="83"/>
+      <c r="K145" s="113"/>
       <c r="L145" s="52"/>
       <c r="M145" s="80"/>
       <c r="N145" s="72"/>
@@ -5704,16 +6330,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H146" s="83">
+      <c r="H146" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I146" s="83"/>
-      <c r="J146" s="83">
+      <c r="I146" s="113"/>
+      <c r="J146" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K146" s="83"/>
+      <c r="K146" s="113"/>
       <c r="L146" s="53"/>
       <c r="M146" s="81"/>
       <c r="N146" s="72"/>
@@ -5750,16 +6376,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H147" s="83">
+      <c r="H147" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I147" s="83"/>
-      <c r="J147" s="83">
+      <c r="I147" s="113"/>
+      <c r="J147" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K147" s="83"/>
+      <c r="K147" s="113"/>
       <c r="L147" s="52"/>
       <c r="M147" s="80"/>
       <c r="N147" s="72"/>
@@ -5781,16 +6407,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H148" s="83">
+      <c r="H148" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I148" s="83"/>
-      <c r="J148" s="83">
+      <c r="I148" s="113"/>
+      <c r="J148" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K148" s="83"/>
+      <c r="K148" s="113"/>
       <c r="L148" s="53"/>
       <c r="M148" s="81"/>
       <c r="N148" s="72"/>
@@ -5827,16 +6453,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H149" s="83">
+      <c r="H149" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I149" s="83"/>
-      <c r="J149" s="83">
+      <c r="I149" s="113"/>
+      <c r="J149" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K149" s="83"/>
+      <c r="K149" s="113"/>
       <c r="L149" s="52"/>
       <c r="M149" s="80"/>
       <c r="N149" s="72"/>
@@ -5858,16 +6484,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H150" s="83">
+      <c r="H150" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I150" s="83"/>
-      <c r="J150" s="83">
+      <c r="I150" s="113"/>
+      <c r="J150" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K150" s="83"/>
+      <c r="K150" s="113"/>
       <c r="L150" s="53"/>
       <c r="M150" s="81"/>
       <c r="N150" s="72"/>
@@ -5904,16 +6530,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H151" s="83">
+      <c r="H151" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I151" s="83"/>
-      <c r="J151" s="83">
+      <c r="I151" s="113"/>
+      <c r="J151" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K151" s="83"/>
+      <c r="K151" s="113"/>
       <c r="L151" s="52"/>
       <c r="M151" s="80"/>
       <c r="N151" s="72"/>
@@ -5935,16 +6561,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H152" s="83">
+      <c r="H152" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I152" s="83"/>
-      <c r="J152" s="83">
+      <c r="I152" s="113"/>
+      <c r="J152" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K152" s="83"/>
+      <c r="K152" s="113"/>
       <c r="L152" s="53"/>
       <c r="M152" s="81"/>
       <c r="N152" s="76"/>
@@ -5981,16 +6607,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H153" s="83">
+      <c r="H153" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I153" s="83"/>
-      <c r="J153" s="83">
+      <c r="I153" s="113"/>
+      <c r="J153" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K153" s="83"/>
+      <c r="K153" s="113"/>
       <c r="L153" s="52"/>
       <c r="M153" s="80"/>
       <c r="N153" s="72"/>
@@ -6012,16 +6638,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H154" s="83">
+      <c r="H154" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I154" s="83"/>
-      <c r="J154" s="83">
+      <c r="I154" s="113"/>
+      <c r="J154" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K154" s="83"/>
+      <c r="K154" s="113"/>
       <c r="L154" s="53"/>
       <c r="M154" s="81"/>
       <c r="N154" s="72"/>
@@ -6058,16 +6684,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H155" s="83">
+      <c r="H155" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I155" s="83"/>
-      <c r="J155" s="83">
+      <c r="I155" s="113"/>
+      <c r="J155" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K155" s="83"/>
+      <c r="K155" s="113"/>
       <c r="L155" s="52"/>
       <c r="M155" s="80"/>
       <c r="N155" s="72"/>
@@ -6089,16 +6715,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H156" s="83">
+      <c r="H156" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I156" s="83"/>
-      <c r="J156" s="83">
+      <c r="I156" s="113"/>
+      <c r="J156" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K156" s="83"/>
+      <c r="K156" s="113"/>
       <c r="L156" s="53"/>
       <c r="M156" s="81"/>
       <c r="N156" s="72"/>
@@ -6135,16 +6761,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H157" s="83">
+      <c r="H157" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I157" s="83"/>
-      <c r="J157" s="83">
+      <c r="I157" s="113"/>
+      <c r="J157" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K157" s="83"/>
+      <c r="K157" s="113"/>
       <c r="L157" s="52"/>
       <c r="M157" s="80"/>
       <c r="N157" s="72"/>
@@ -6166,16 +6792,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H158" s="83">
+      <c r="H158" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I158" s="83"/>
-      <c r="J158" s="83">
+      <c r="I158" s="113"/>
+      <c r="J158" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K158" s="83"/>
+      <c r="K158" s="113"/>
       <c r="L158" s="53"/>
       <c r="M158" s="81"/>
       <c r="N158" s="72"/>
@@ -6212,16 +6838,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H159" s="83">
+      <c r="H159" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I159" s="83"/>
-      <c r="J159" s="83">
+      <c r="I159" s="113"/>
+      <c r="J159" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K159" s="83"/>
+      <c r="K159" s="113"/>
       <c r="L159" s="52"/>
       <c r="M159" s="80"/>
       <c r="N159" s="72"/>
@@ -6243,16 +6869,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H160" s="83">
+      <c r="H160" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I160" s="83"/>
-      <c r="J160" s="83">
+      <c r="I160" s="113"/>
+      <c r="J160" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K160" s="83"/>
+      <c r="K160" s="113"/>
       <c r="L160" s="53"/>
       <c r="M160" s="81"/>
       <c r="N160" s="72"/>
@@ -6289,16 +6915,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H161" s="83">
+      <c r="H161" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I161" s="83"/>
-      <c r="J161" s="83">
+      <c r="I161" s="113"/>
+      <c r="J161" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K161" s="83"/>
+      <c r="K161" s="113"/>
       <c r="L161" s="52"/>
       <c r="M161" s="80"/>
       <c r="N161" s="72"/>
@@ -6320,16 +6946,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H162" s="83">
+      <c r="H162" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I162" s="83"/>
-      <c r="J162" s="83">
+      <c r="I162" s="113"/>
+      <c r="J162" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K162" s="83"/>
+      <c r="K162" s="113"/>
       <c r="L162" s="53"/>
       <c r="M162" s="81"/>
       <c r="N162" s="76"/>
@@ -6366,16 +6992,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H163" s="83">
+      <c r="H163" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I163" s="83"/>
-      <c r="J163" s="83">
+      <c r="I163" s="113"/>
+      <c r="J163" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K163" s="83"/>
+      <c r="K163" s="113"/>
       <c r="L163" s="52"/>
       <c r="M163" s="80"/>
       <c r="N163" s="72"/>
@@ -6397,16 +7023,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H164" s="83">
+      <c r="H164" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I164" s="83"/>
-      <c r="J164" s="83">
+      <c r="I164" s="113"/>
+      <c r="J164" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K164" s="83"/>
+      <c r="K164" s="113"/>
       <c r="L164" s="53"/>
       <c r="M164" s="81"/>
       <c r="N164" s="72"/>
@@ -6443,16 +7069,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H165" s="83">
+      <c r="H165" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I165" s="83"/>
-      <c r="J165" s="83">
+      <c r="I165" s="113"/>
+      <c r="J165" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K165" s="83"/>
+      <c r="K165" s="113"/>
       <c r="L165" s="52"/>
       <c r="M165" s="80"/>
       <c r="N165" s="72"/>
@@ -6474,16 +7100,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H166" s="83">
+      <c r="H166" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I166" s="83"/>
-      <c r="J166" s="83">
+      <c r="I166" s="113"/>
+      <c r="J166" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K166" s="83"/>
+      <c r="K166" s="113"/>
       <c r="L166" s="53"/>
       <c r="M166" s="81"/>
       <c r="N166" s="72"/>
@@ -6520,16 +7146,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H167" s="83">
+      <c r="H167" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I167" s="83"/>
-      <c r="J167" s="83">
+      <c r="I167" s="113"/>
+      <c r="J167" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K167" s="83"/>
+      <c r="K167" s="113"/>
       <c r="L167" s="52"/>
       <c r="M167" s="80"/>
       <c r="N167" s="72"/>
@@ -6551,16 +7177,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H168" s="83">
+      <c r="H168" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I168" s="83"/>
-      <c r="J168" s="83">
+      <c r="I168" s="113"/>
+      <c r="J168" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K168" s="83"/>
+      <c r="K168" s="113"/>
       <c r="L168" s="53"/>
       <c r="M168" s="81"/>
       <c r="N168" s="72"/>
@@ -6597,16 +7223,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H169" s="83">
+      <c r="H169" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I169" s="83"/>
-      <c r="J169" s="83">
+      <c r="I169" s="113"/>
+      <c r="J169" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K169" s="83"/>
+      <c r="K169" s="113"/>
       <c r="L169" s="52"/>
       <c r="M169" s="80"/>
       <c r="N169" s="72"/>
@@ -6628,16 +7254,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H170" s="83">
+      <c r="H170" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I170" s="83"/>
-      <c r="J170" s="83">
+      <c r="I170" s="113"/>
+      <c r="J170" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K170" s="83"/>
+      <c r="K170" s="113"/>
       <c r="L170" s="53"/>
       <c r="M170" s="81"/>
       <c r="N170" s="72"/>
@@ -6674,16 +7300,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H171" s="83">
+      <c r="H171" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I171" s="83"/>
-      <c r="J171" s="83">
+      <c r="I171" s="113"/>
+      <c r="J171" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K171" s="83"/>
+      <c r="K171" s="113"/>
       <c r="L171" s="52"/>
       <c r="M171" s="80"/>
       <c r="N171" s="72"/>
@@ -6705,16 +7331,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H172" s="83">
+      <c r="H172" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I172" s="83"/>
-      <c r="J172" s="83">
+      <c r="I172" s="113"/>
+      <c r="J172" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K172" s="83"/>
+      <c r="K172" s="113"/>
       <c r="L172" s="53"/>
       <c r="M172" s="81"/>
       <c r="N172" s="76"/>
@@ -6751,16 +7377,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H173" s="83">
+      <c r="H173" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I173" s="83"/>
-      <c r="J173" s="83">
+      <c r="I173" s="113"/>
+      <c r="J173" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K173" s="83"/>
+      <c r="K173" s="113"/>
       <c r="L173" s="52"/>
       <c r="M173" s="80"/>
       <c r="N173" s="72"/>
@@ -6782,16 +7408,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H174" s="83">
+      <c r="H174" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I174" s="83"/>
-      <c r="J174" s="83">
+      <c r="I174" s="113"/>
+      <c r="J174" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K174" s="83"/>
+      <c r="K174" s="113"/>
       <c r="L174" s="53"/>
       <c r="M174" s="81"/>
       <c r="N174" s="72"/>
@@ -6828,16 +7454,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H175" s="83">
+      <c r="H175" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I175" s="83"/>
-      <c r="J175" s="83">
+      <c r="I175" s="113"/>
+      <c r="J175" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K175" s="83"/>
+      <c r="K175" s="113"/>
       <c r="L175" s="52"/>
       <c r="M175" s="80"/>
       <c r="N175" s="72"/>
@@ -6859,16 +7485,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H176" s="83">
+      <c r="H176" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I176" s="83"/>
-      <c r="J176" s="83">
+      <c r="I176" s="113"/>
+      <c r="J176" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K176" s="83"/>
+      <c r="K176" s="113"/>
       <c r="L176" s="53"/>
       <c r="M176" s="81"/>
       <c r="N176" s="72"/>
@@ -6905,16 +7531,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H177" s="83">
+      <c r="H177" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I177" s="83"/>
-      <c r="J177" s="83">
+      <c r="I177" s="113"/>
+      <c r="J177" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K177" s="83"/>
+      <c r="K177" s="113"/>
       <c r="L177" s="52"/>
       <c r="M177" s="80"/>
       <c r="N177" s="72"/>
@@ -6936,16 +7562,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H178" s="83">
+      <c r="H178" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I178" s="83"/>
-      <c r="J178" s="83">
+      <c r="I178" s="113"/>
+      <c r="J178" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K178" s="83"/>
+      <c r="K178" s="113"/>
       <c r="L178" s="53"/>
       <c r="M178" s="81"/>
       <c r="N178" s="72"/>
@@ -6982,16 +7608,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H179" s="83">
+      <c r="H179" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I179" s="83"/>
-      <c r="J179" s="83">
+      <c r="I179" s="113"/>
+      <c r="J179" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K179" s="83"/>
+      <c r="K179" s="113"/>
       <c r="L179" s="52"/>
       <c r="M179" s="80"/>
       <c r="N179" s="72"/>
@@ -7013,16 +7639,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H180" s="83">
+      <c r="H180" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I180" s="83"/>
-      <c r="J180" s="83">
+      <c r="I180" s="113"/>
+      <c r="J180" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K180" s="83"/>
+      <c r="K180" s="113"/>
       <c r="L180" s="53"/>
       <c r="M180" s="81"/>
       <c r="N180" s="72"/>
@@ -7059,16 +7685,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H181" s="83">
+      <c r="H181" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I181" s="83"/>
-      <c r="J181" s="83">
+      <c r="I181" s="113"/>
+      <c r="J181" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K181" s="83"/>
+      <c r="K181" s="113"/>
       <c r="L181" s="52"/>
       <c r="M181" s="80"/>
       <c r="N181" s="72"/>
@@ -7090,16 +7716,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H182" s="83">
+      <c r="H182" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I182" s="83"/>
-      <c r="J182" s="83">
+      <c r="I182" s="113"/>
+      <c r="J182" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K182" s="83"/>
+      <c r="K182" s="113"/>
       <c r="L182" s="53"/>
       <c r="M182" s="81"/>
       <c r="N182" s="76"/>
@@ -7136,16 +7762,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H183" s="83">
+      <c r="H183" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I183" s="83"/>
-      <c r="J183" s="83">
+      <c r="I183" s="113"/>
+      <c r="J183" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K183" s="83"/>
+      <c r="K183" s="113"/>
       <c r="L183" s="52"/>
       <c r="M183" s="80"/>
       <c r="N183" s="72"/>
@@ -7167,16 +7793,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H184" s="83">
+      <c r="H184" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I184" s="83"/>
-      <c r="J184" s="83">
+      <c r="I184" s="113"/>
+      <c r="J184" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K184" s="83"/>
+      <c r="K184" s="113"/>
       <c r="L184" s="53"/>
       <c r="M184" s="81"/>
       <c r="N184" s="72"/>
@@ -7213,16 +7839,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H185" s="83">
+      <c r="H185" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I185" s="83"/>
-      <c r="J185" s="83">
+      <c r="I185" s="113"/>
+      <c r="J185" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K185" s="83"/>
+      <c r="K185" s="113"/>
       <c r="L185" s="52"/>
       <c r="M185" s="80"/>
       <c r="N185" s="72"/>
@@ -7244,16 +7870,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H186" s="83">
+      <c r="H186" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I186" s="83"/>
-      <c r="J186" s="83">
+      <c r="I186" s="113"/>
+      <c r="J186" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K186" s="83"/>
+      <c r="K186" s="113"/>
       <c r="L186" s="53"/>
       <c r="M186" s="81"/>
       <c r="N186" s="72"/>
@@ -7290,16 +7916,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H187" s="83">
+      <c r="H187" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I187" s="83"/>
-      <c r="J187" s="83">
+      <c r="I187" s="113"/>
+      <c r="J187" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K187" s="83"/>
+      <c r="K187" s="113"/>
       <c r="L187" s="52"/>
       <c r="M187" s="80"/>
       <c r="N187" s="72"/>
@@ -7321,16 +7947,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H188" s="83">
+      <c r="H188" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I188" s="83"/>
-      <c r="J188" s="83">
+      <c r="I188" s="113"/>
+      <c r="J188" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K188" s="83"/>
+      <c r="K188" s="113"/>
       <c r="L188" s="53"/>
       <c r="M188" s="81"/>
       <c r="N188" s="72"/>
@@ -7367,16 +7993,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H189" s="83">
+      <c r="H189" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I189" s="83"/>
-      <c r="J189" s="83">
+      <c r="I189" s="113"/>
+      <c r="J189" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K189" s="83"/>
+      <c r="K189" s="113"/>
       <c r="L189" s="52"/>
       <c r="M189" s="80"/>
       <c r="N189" s="72"/>
@@ -7398,16 +8024,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H190" s="83">
+      <c r="H190" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I190" s="83"/>
-      <c r="J190" s="83">
+      <c r="I190" s="113"/>
+      <c r="J190" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K190" s="83"/>
+      <c r="K190" s="113"/>
       <c r="L190" s="53"/>
       <c r="M190" s="81"/>
       <c r="N190" s="72"/>
@@ -7444,16 +8070,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H191" s="83">
+      <c r="H191" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I191" s="83"/>
-      <c r="J191" s="83">
+      <c r="I191" s="113"/>
+      <c r="J191" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K191" s="83"/>
+      <c r="K191" s="113"/>
       <c r="L191" s="52"/>
       <c r="M191" s="80"/>
       <c r="N191" s="72"/>
@@ -7475,16 +8101,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H192" s="83">
+      <c r="H192" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I192" s="83"/>
-      <c r="J192" s="83">
+      <c r="I192" s="113"/>
+      <c r="J192" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K192" s="83"/>
+      <c r="K192" s="113"/>
       <c r="L192" s="53"/>
       <c r="M192" s="81"/>
       <c r="N192" s="76"/>
@@ -7521,16 +8147,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H193" s="83">
+      <c r="H193" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I193" s="83"/>
-      <c r="J193" s="83">
+      <c r="I193" s="113"/>
+      <c r="J193" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K193" s="83"/>
+      <c r="K193" s="113"/>
       <c r="L193" s="52"/>
       <c r="M193" s="80"/>
       <c r="N193" s="72"/>
@@ -7552,16 +8178,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H194" s="83">
+      <c r="H194" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I194" s="83"/>
-      <c r="J194" s="83">
+      <c r="I194" s="113"/>
+      <c r="J194" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K194" s="83"/>
+      <c r="K194" s="113"/>
       <c r="L194" s="53"/>
       <c r="M194" s="81"/>
       <c r="N194" s="72"/>
@@ -7598,16 +8224,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H195" s="83">
+      <c r="H195" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I195" s="83"/>
-      <c r="J195" s="83">
+      <c r="I195" s="113"/>
+      <c r="J195" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K195" s="83"/>
+      <c r="K195" s="113"/>
       <c r="L195" s="52"/>
       <c r="M195" s="80"/>
       <c r="N195" s="72"/>
@@ -7629,16 +8255,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H196" s="83">
+      <c r="H196" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I196" s="83"/>
-      <c r="J196" s="83">
+      <c r="I196" s="113"/>
+      <c r="J196" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K196" s="83"/>
+      <c r="K196" s="113"/>
       <c r="L196" s="53"/>
       <c r="M196" s="81"/>
       <c r="N196" s="72"/>
@@ -7675,16 +8301,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H197" s="83">
+      <c r="H197" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I197" s="83"/>
-      <c r="J197" s="83">
+      <c r="I197" s="113"/>
+      <c r="J197" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K197" s="83"/>
+      <c r="K197" s="113"/>
       <c r="L197" s="52"/>
       <c r="M197" s="80"/>
       <c r="N197" s="72"/>
@@ -7706,16 +8332,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H198" s="83">
+      <c r="H198" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I198" s="83"/>
-      <c r="J198" s="83">
+      <c r="I198" s="113"/>
+      <c r="J198" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K198" s="83"/>
+      <c r="K198" s="113"/>
       <c r="L198" s="53"/>
       <c r="M198" s="81"/>
       <c r="N198" s="72"/>
@@ -7752,16 +8378,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H199" s="83">
+      <c r="H199" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I199" s="83"/>
-      <c r="J199" s="83">
+      <c r="I199" s="113"/>
+      <c r="J199" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K199" s="83"/>
+      <c r="K199" s="113"/>
       <c r="L199" s="52"/>
       <c r="M199" s="80"/>
       <c r="N199" s="72"/>
@@ -7783,16 +8409,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H200" s="83">
+      <c r="H200" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I200" s="83"/>
-      <c r="J200" s="83">
+      <c r="I200" s="113"/>
+      <c r="J200" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K200" s="83"/>
+      <c r="K200" s="113"/>
       <c r="L200" s="53"/>
       <c r="M200" s="81"/>
       <c r="N200" s="72"/>
@@ -7829,16 +8455,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金（A值）</v>
       </c>
-      <c r="H201" s="83">
+      <c r="H201" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I201" s="83"/>
-      <c r="J201" s="83">
+      <c r="I201" s="113"/>
+      <c r="J201" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K201" s="83"/>
+      <c r="K201" s="113"/>
       <c r="L201" s="52"/>
       <c r="M201" s="80"/>
       <c r="N201" s="72"/>
@@ -7860,16 +8486,16 @@
         <f t="shared" si="2"/>
         <v>風險保證金最低值（B值）</v>
       </c>
-      <c r="H202" s="83">
+      <c r="H202" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I202" s="83"/>
-      <c r="J202" s="83">
+      <c r="I202" s="113"/>
+      <c r="J202" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K202" s="83"/>
+      <c r="K202" s="113"/>
       <c r="L202" s="53"/>
       <c r="M202" s="81"/>
       <c r="N202" s="76"/>
@@ -7882,21 +8508,21 @@
     </row>
     <row r="203" spans="1:20" ht="44.25" customHeight="1">
       <c r="A203" s="2"/>
-      <c r="B203" s="87" t="s">
+      <c r="B203" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="C203" s="87"/>
-      <c r="D203" s="87"/>
-      <c r="E203" s="87"/>
-      <c r="F203" s="87"/>
-      <c r="G203" s="87"/>
-      <c r="H203" s="87"/>
-      <c r="I203" s="87"/>
-      <c r="J203" s="87"/>
-      <c r="K203" s="87"/>
-      <c r="L203" s="87"/>
-    </row>
-    <row r="204" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="C203" s="116"/>
+      <c r="D203" s="116"/>
+      <c r="E203" s="116"/>
+      <c r="F203" s="116"/>
+      <c r="G203" s="116"/>
+      <c r="H203" s="116"/>
+      <c r="I203" s="116"/>
+      <c r="J203" s="116"/>
+      <c r="K203" s="116"/>
+      <c r="L203" s="116"/>
+    </row>
+    <row r="204" spans="1:20" ht="19.95" customHeight="1">
       <c r="A204" s="2"/>
       <c r="B204" s="26" t="s">
         <v>33</v>
@@ -7911,7 +8537,7 @@
       <c r="K204" s="26"/>
       <c r="L204" s="46"/>
     </row>
-    <row r="205" spans="1:20" ht="19.899999999999999" customHeight="1">
+    <row r="205" spans="1:20" ht="19.95" customHeight="1">
       <c r="B205" s="26"/>
       <c r="C205" s="26"/>
       <c r="D205" s="26"/>
@@ -7923,7 +8549,7 @@
       <c r="K205" s="26"/>
     </row>
     <row r="206" spans="1:20" ht="11.25" customHeight="1"/>
-    <row r="207" spans="1:20" s="3" customFormat="1" ht="16.5">
+    <row r="207" spans="1:20" s="3" customFormat="1" ht="16.2">
       <c r="B207" s="4" t="s">
         <v>2</v>
       </c>
@@ -7948,100 +8574,101 @@
     <row r="210" ht="42" customHeight="1"/>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="L139:M139"/>
-    <mergeCell ref="J197:K197"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="H197:I197"/>
-    <mergeCell ref="B141:L141"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="J142:K142"/>
-    <mergeCell ref="J202:K202"/>
-    <mergeCell ref="H199:I199"/>
-    <mergeCell ref="J199:K199"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="B203:L203"/>
-    <mergeCell ref="H202:I202"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="H198:I198"/>
-    <mergeCell ref="J198:K198"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="J190:K190"/>
-    <mergeCell ref="H193:I193"/>
-    <mergeCell ref="J194:K194"/>
-    <mergeCell ref="H185:I185"/>
-    <mergeCell ref="J185:K185"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="J172:K172"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="J167:K167"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="J168:K168"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="J159:K159"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="J160:K160"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="J171:K171"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="J163:K163"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="J164:K164"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="J165:K165"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="J170:K170"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="J162:K162"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="J143:K143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="J145:K145"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="J146:K146"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="J158:K158"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="J156:K156"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="J161:K161"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="J157:K157"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="J195:K195"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="J192:K192"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H191:I191"/>
+    <mergeCell ref="J191:K191"/>
+    <mergeCell ref="H186:I186"/>
+    <mergeCell ref="J193:K193"/>
+    <mergeCell ref="H182:I182"/>
+    <mergeCell ref="J182:K182"/>
+    <mergeCell ref="J186:K186"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="J187:K187"/>
+    <mergeCell ref="H179:I179"/>
+    <mergeCell ref="J188:K188"/>
+    <mergeCell ref="H189:I189"/>
+    <mergeCell ref="J189:K189"/>
+    <mergeCell ref="H183:I183"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="J30:K30"/>
@@ -8049,9 +8676,6 @@
     <mergeCell ref="J46:K46"/>
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="J35:K35"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="H43:I43"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="H10:I10"/>
@@ -8076,46 +8700,59 @@
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="H195:I195"/>
-    <mergeCell ref="J195:K195"/>
-    <mergeCell ref="H192:I192"/>
-    <mergeCell ref="J192:K192"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H191:I191"/>
-    <mergeCell ref="J191:K191"/>
-    <mergeCell ref="H186:I186"/>
-    <mergeCell ref="J193:K193"/>
-    <mergeCell ref="H182:I182"/>
-    <mergeCell ref="J182:K182"/>
-    <mergeCell ref="J186:K186"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="J187:K187"/>
-    <mergeCell ref="H179:I179"/>
-    <mergeCell ref="J188:K188"/>
-    <mergeCell ref="H189:I189"/>
-    <mergeCell ref="J189:K189"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="B203:L203"/>
+    <mergeCell ref="H202:I202"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="H198:I198"/>
+    <mergeCell ref="J198:K198"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="J190:K190"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="J194:K194"/>
+    <mergeCell ref="H185:I185"/>
+    <mergeCell ref="J185:K185"/>
     <mergeCell ref="H196:I196"/>
     <mergeCell ref="J196:K196"/>
-    <mergeCell ref="H183:I183"/>
     <mergeCell ref="J183:K183"/>
     <mergeCell ref="H184:I184"/>
     <mergeCell ref="J184:K184"/>
@@ -8126,6 +8763,16 @@
     <mergeCell ref="J181:K181"/>
     <mergeCell ref="H176:I176"/>
     <mergeCell ref="J176:K176"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="H197:I197"/>
+    <mergeCell ref="B141:L141"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="J142:K142"/>
+    <mergeCell ref="J202:K202"/>
+    <mergeCell ref="H199:I199"/>
+    <mergeCell ref="J199:K199"/>
+    <mergeCell ref="H200:I200"/>
     <mergeCell ref="H177:I177"/>
     <mergeCell ref="J177:K177"/>
     <mergeCell ref="H178:I178"/>
@@ -8140,63 +8787,42 @@
     <mergeCell ref="H174:I174"/>
     <mergeCell ref="J174:K174"/>
     <mergeCell ref="J178:K178"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="J170:K170"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="J162:K162"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="J161:K161"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="J171:K171"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="J163:K163"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="J164:K164"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="J165:K165"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="J143:K143"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="J144:K144"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="J172:K172"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="J167:K167"/>
-    <mergeCell ref="H168:I168"/>
-    <mergeCell ref="J168:K168"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="J159:K159"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="J160:K160"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="J145:K145"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="J146:K146"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="J158:K158"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="J156:K156"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="J157:K157"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="J197:K197"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:K62"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="M143 M145 M147 M149 M151 M153 M155 M157 M159 M161 M163 M165 M167 M169 M171 M173 M175 M177 M179 M181 M183 M185 M187 M189 M191 M193 M195 M197 M199 M201">
@@ -8218,4 +8844,1144 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG30"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:W1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="100" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.44140625" customWidth="1"/>
+    <col min="17" max="17" width="8.77734375" style="98" customWidth="1"/>
+    <col min="21" max="23" width="9" style="102"/>
+    <col min="24" max="24" width="9.109375" style="98" customWidth="1"/>
+    <col min="28" max="30" width="9" style="102"/>
+    <col min="31" max="33" width="9" style="96"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" s="83" customFormat="1" ht="42.75" customHeight="1">
+      <c r="Q1" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="119" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="120"/>
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="120"/>
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="120"/>
+      <c r="AG1" s="121"/>
+    </row>
+    <row r="2" spans="1:33" s="83" customFormat="1" ht="79.2">
+      <c r="A2" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="103" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB2" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC2" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD2" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE2" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF2" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" s="90" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="84"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="95"/>
+      <c r="AG3" s="95"/>
+    </row>
+    <row r="4" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="84"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="101"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+    </row>
+    <row r="5" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="84"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="101"/>
+      <c r="AC5" s="101"/>
+      <c r="AD5" s="101"/>
+      <c r="AE5" s="95"/>
+      <c r="AF5" s="95"/>
+      <c r="AG5" s="95"/>
+    </row>
+    <row r="6" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="84"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="101"/>
+      <c r="V6" s="101"/>
+      <c r="W6" s="101"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="101"/>
+      <c r="AC6" s="101"/>
+      <c r="AD6" s="101"/>
+      <c r="AE6" s="95"/>
+      <c r="AF6" s="95"/>
+      <c r="AG6" s="95"/>
+    </row>
+    <row r="7" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="84"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="101"/>
+      <c r="W7" s="101"/>
+      <c r="X7" s="88"/>
+      <c r="Y7" s="88"/>
+      <c r="Z7" s="88"/>
+      <c r="AA7" s="88"/>
+      <c r="AB7" s="101"/>
+      <c r="AC7" s="101"/>
+      <c r="AD7" s="101"/>
+      <c r="AE7" s="95"/>
+      <c r="AF7" s="95"/>
+      <c r="AG7" s="95"/>
+    </row>
+    <row r="8" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="84"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="88"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="95"/>
+      <c r="AF8" s="95"/>
+      <c r="AG8" s="95"/>
+    </row>
+    <row r="9" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="84"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="88"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="101"/>
+      <c r="X9" s="88"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="88"/>
+      <c r="AA9" s="88"/>
+      <c r="AB9" s="101"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="101"/>
+      <c r="AE9" s="95"/>
+      <c r="AF9" s="95"/>
+      <c r="AG9" s="95"/>
+    </row>
+    <row r="10" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="84"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="88"/>
+      <c r="T10" s="88"/>
+      <c r="U10" s="101"/>
+      <c r="V10" s="101"/>
+      <c r="W10" s="101"/>
+      <c r="X10" s="88"/>
+      <c r="Y10" s="88"/>
+      <c r="Z10" s="88"/>
+      <c r="AA10" s="88"/>
+      <c r="AB10" s="101"/>
+      <c r="AC10" s="101"/>
+      <c r="AD10" s="101"/>
+      <c r="AE10" s="95"/>
+      <c r="AF10" s="95"/>
+      <c r="AG10" s="95"/>
+    </row>
+    <row r="11" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="84"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="88"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="101"/>
+      <c r="X11" s="88"/>
+      <c r="Y11" s="88"/>
+      <c r="Z11" s="88"/>
+      <c r="AA11" s="88"/>
+      <c r="AB11" s="101"/>
+      <c r="AC11" s="101"/>
+      <c r="AD11" s="101"/>
+      <c r="AE11" s="95"/>
+      <c r="AF11" s="95"/>
+      <c r="AG11" s="95"/>
+    </row>
+    <row r="12" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="84"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="88"/>
+      <c r="U12" s="101"/>
+      <c r="V12" s="101"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="88"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="88"/>
+      <c r="AB12" s="101"/>
+      <c r="AC12" s="101"/>
+      <c r="AD12" s="101"/>
+      <c r="AE12" s="95"/>
+      <c r="AF12" s="95"/>
+      <c r="AG12" s="95"/>
+    </row>
+    <row r="13" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="84"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="101"/>
+      <c r="V13" s="101"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="88"/>
+      <c r="AB13" s="101"/>
+      <c r="AC13" s="101"/>
+      <c r="AD13" s="101"/>
+      <c r="AE13" s="95"/>
+      <c r="AF13" s="95"/>
+      <c r="AG13" s="95"/>
+    </row>
+    <row r="14" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="84"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="101"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="88"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="88"/>
+      <c r="AB14" s="101"/>
+      <c r="AC14" s="101"/>
+      <c r="AD14" s="101"/>
+      <c r="AE14" s="95"/>
+      <c r="AF14" s="95"/>
+      <c r="AG14" s="95"/>
+    </row>
+    <row r="15" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="84"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="88"/>
+      <c r="U15" s="101"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="101"/>
+      <c r="X15" s="88"/>
+      <c r="Y15" s="88"/>
+      <c r="Z15" s="88"/>
+      <c r="AA15" s="88"/>
+      <c r="AB15" s="101"/>
+      <c r="AC15" s="101"/>
+      <c r="AD15" s="101"/>
+      <c r="AE15" s="95"/>
+      <c r="AF15" s="95"/>
+      <c r="AG15" s="95"/>
+    </row>
+    <row r="16" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="84"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="88"/>
+      <c r="R16" s="88"/>
+      <c r="S16" s="88"/>
+      <c r="T16" s="88"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="101"/>
+      <c r="X16" s="88"/>
+      <c r="Y16" s="88"/>
+      <c r="Z16" s="88"/>
+      <c r="AA16" s="88"/>
+      <c r="AB16" s="101"/>
+      <c r="AC16" s="101"/>
+      <c r="AD16" s="101"/>
+      <c r="AE16" s="95"/>
+      <c r="AF16" s="95"/>
+      <c r="AG16" s="95"/>
+    </row>
+    <row r="17" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="84"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="88"/>
+      <c r="S17" s="88"/>
+      <c r="T17" s="88"/>
+      <c r="U17" s="101"/>
+      <c r="V17" s="101"/>
+      <c r="W17" s="101"/>
+      <c r="X17" s="88"/>
+      <c r="Y17" s="88"/>
+      <c r="Z17" s="88"/>
+      <c r="AA17" s="88"/>
+      <c r="AB17" s="101"/>
+      <c r="AC17" s="101"/>
+      <c r="AD17" s="101"/>
+      <c r="AE17" s="95"/>
+      <c r="AF17" s="95"/>
+      <c r="AG17" s="95"/>
+    </row>
+    <row r="18" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A18" s="84"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="88"/>
+      <c r="S18" s="88"/>
+      <c r="T18" s="88"/>
+      <c r="U18" s="101"/>
+      <c r="V18" s="101"/>
+      <c r="W18" s="101"/>
+      <c r="X18" s="88"/>
+      <c r="Y18" s="88"/>
+      <c r="Z18" s="88"/>
+      <c r="AA18" s="88"/>
+      <c r="AB18" s="101"/>
+      <c r="AC18" s="101"/>
+      <c r="AD18" s="101"/>
+      <c r="AE18" s="95"/>
+      <c r="AF18" s="95"/>
+      <c r="AG18" s="95"/>
+    </row>
+    <row r="19" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A19" s="84"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="88"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="88"/>
+      <c r="U19" s="101"/>
+      <c r="V19" s="101"/>
+      <c r="W19" s="101"/>
+      <c r="X19" s="88"/>
+      <c r="Y19" s="88"/>
+      <c r="Z19" s="88"/>
+      <c r="AA19" s="88"/>
+      <c r="AB19" s="101"/>
+      <c r="AC19" s="101"/>
+      <c r="AD19" s="101"/>
+      <c r="AE19" s="95"/>
+      <c r="AF19" s="95"/>
+      <c r="AG19" s="95"/>
+    </row>
+    <row r="20" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A20" s="84"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="88"/>
+      <c r="T20" s="88"/>
+      <c r="U20" s="101"/>
+      <c r="V20" s="101"/>
+      <c r="W20" s="101"/>
+      <c r="X20" s="88"/>
+      <c r="Y20" s="88"/>
+      <c r="Z20" s="88"/>
+      <c r="AA20" s="88"/>
+      <c r="AB20" s="101"/>
+      <c r="AC20" s="101"/>
+      <c r="AD20" s="101"/>
+      <c r="AE20" s="95"/>
+      <c r="AF20" s="95"/>
+      <c r="AG20" s="95"/>
+    </row>
+    <row r="21" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A21" s="84"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="88"/>
+      <c r="T21" s="88"/>
+      <c r="U21" s="101"/>
+      <c r="V21" s="101"/>
+      <c r="W21" s="101"/>
+      <c r="X21" s="88"/>
+      <c r="Y21" s="88"/>
+      <c r="Z21" s="88"/>
+      <c r="AA21" s="88"/>
+      <c r="AB21" s="101"/>
+      <c r="AC21" s="101"/>
+      <c r="AD21" s="101"/>
+      <c r="AE21" s="95"/>
+      <c r="AF21" s="95"/>
+      <c r="AG21" s="95"/>
+    </row>
+    <row r="22" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="84"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="88"/>
+      <c r="U22" s="101"/>
+      <c r="V22" s="101"/>
+      <c r="W22" s="101"/>
+      <c r="X22" s="88"/>
+      <c r="Y22" s="88"/>
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="88"/>
+      <c r="AB22" s="101"/>
+      <c r="AC22" s="101"/>
+      <c r="AD22" s="101"/>
+      <c r="AE22" s="95"/>
+      <c r="AF22" s="95"/>
+      <c r="AG22" s="95"/>
+    </row>
+    <row r="23" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="84"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="88"/>
+      <c r="T23" s="88"/>
+      <c r="U23" s="101"/>
+      <c r="V23" s="101"/>
+      <c r="W23" s="101"/>
+      <c r="X23" s="88"/>
+      <c r="Y23" s="88"/>
+      <c r="Z23" s="88"/>
+      <c r="AA23" s="88"/>
+      <c r="AB23" s="101"/>
+      <c r="AC23" s="101"/>
+      <c r="AD23" s="101"/>
+      <c r="AE23" s="95"/>
+      <c r="AF23" s="95"/>
+      <c r="AG23" s="95"/>
+    </row>
+    <row r="24" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="84"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="88"/>
+      <c r="T24" s="88"/>
+      <c r="U24" s="101"/>
+      <c r="V24" s="101"/>
+      <c r="W24" s="101"/>
+      <c r="X24" s="88"/>
+      <c r="Y24" s="88"/>
+      <c r="Z24" s="88"/>
+      <c r="AA24" s="88"/>
+      <c r="AB24" s="101"/>
+      <c r="AC24" s="101"/>
+      <c r="AD24" s="101"/>
+      <c r="AE24" s="95"/>
+      <c r="AF24" s="95"/>
+      <c r="AG24" s="95"/>
+    </row>
+    <row r="25" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="84"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="88"/>
+      <c r="U25" s="101"/>
+      <c r="V25" s="101"/>
+      <c r="W25" s="101"/>
+      <c r="X25" s="88"/>
+      <c r="Y25" s="88"/>
+      <c r="Z25" s="88"/>
+      <c r="AA25" s="88"/>
+      <c r="AB25" s="101"/>
+      <c r="AC25" s="101"/>
+      <c r="AD25" s="101"/>
+      <c r="AE25" s="95"/>
+      <c r="AF25" s="95"/>
+      <c r="AG25" s="95"/>
+    </row>
+    <row r="26" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="84"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="88"/>
+      <c r="U26" s="101"/>
+      <c r="V26" s="101"/>
+      <c r="W26" s="101"/>
+      <c r="X26" s="88"/>
+      <c r="Y26" s="88"/>
+      <c r="Z26" s="88"/>
+      <c r="AA26" s="88"/>
+      <c r="AB26" s="101"/>
+      <c r="AC26" s="101"/>
+      <c r="AD26" s="101"/>
+      <c r="AE26" s="95"/>
+      <c r="AF26" s="95"/>
+      <c r="AG26" s="95"/>
+    </row>
+    <row r="27" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="84"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="101"/>
+      <c r="V27" s="101"/>
+      <c r="W27" s="101"/>
+      <c r="X27" s="88"/>
+      <c r="Y27" s="88"/>
+      <c r="Z27" s="88"/>
+      <c r="AA27" s="88"/>
+      <c r="AB27" s="101"/>
+      <c r="AC27" s="101"/>
+      <c r="AD27" s="101"/>
+      <c r="AE27" s="95"/>
+      <c r="AF27" s="95"/>
+      <c r="AG27" s="95"/>
+    </row>
+    <row r="28" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="84"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="88"/>
+      <c r="U28" s="101"/>
+      <c r="V28" s="101"/>
+      <c r="W28" s="101"/>
+      <c r="X28" s="88"/>
+      <c r="Y28" s="88"/>
+      <c r="Z28" s="88"/>
+      <c r="AA28" s="88"/>
+      <c r="AB28" s="101"/>
+      <c r="AC28" s="101"/>
+      <c r="AD28" s="101"/>
+      <c r="AE28" s="95"/>
+      <c r="AF28" s="95"/>
+      <c r="AG28" s="95"/>
+    </row>
+    <row r="29" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A29" s="84"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="92"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="101"/>
+      <c r="V29" s="101"/>
+      <c r="W29" s="101"/>
+      <c r="X29" s="88"/>
+      <c r="Y29" s="88"/>
+      <c r="Z29" s="88"/>
+      <c r="AA29" s="88"/>
+      <c r="AB29" s="101"/>
+      <c r="AC29" s="101"/>
+      <c r="AD29" s="101"/>
+      <c r="AE29" s="95"/>
+      <c r="AF29" s="95"/>
+      <c r="AG29" s="95"/>
+    </row>
+    <row r="30" spans="1:33" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="84"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="92"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="88"/>
+      <c r="U30" s="101"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="101"/>
+      <c r="X30" s="88"/>
+      <c r="Y30" s="88"/>
+      <c r="Z30" s="88"/>
+      <c r="AA30" s="88"/>
+      <c r="AB30" s="101"/>
+      <c r="AC30" s="101"/>
+      <c r="AD30" s="101"/>
+      <c r="AE30" s="95"/>
+      <c r="AF30" s="95"/>
+      <c r="AG30" s="95"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+  </mergeCells>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="75" fitToWidth="2" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="16" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
 </file>